--- a/data/reg_dif_med_results/difmedias_entre_anos_2015x2019.xlsx
+++ b/data/reg_dif_med_results/difmedias_entre_anos_2015x2019.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="728" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="728" uniqueCount="186">
   <si>
     <t/>
   </si>
@@ -330,13 +330,13 @@
     <t>0.016</t>
   </si>
   <si>
-    <t>16740</t>
-  </si>
-  <si>
-    <t>17608</t>
-  </si>
-  <si>
-    <t>13509</t>
+    <t>16751</t>
+  </si>
+  <si>
+    <t>17621</t>
+  </si>
+  <si>
+    <t>13521</t>
   </si>
   <si>
     <t xml:space="preserve"> (2) </t>
@@ -345,25 +345,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>2.642</t>
+    <t>2.641</t>
   </si>
   <si>
     <t>(0.008)</t>
   </si>
   <si>
-    <t>39.315</t>
+    <t>39.320</t>
   </si>
   <si>
     <t>(0.574)</t>
   </si>
   <si>
-    <t>0.451</t>
+    <t>0.450</t>
   </si>
   <si>
     <t>(0.004)</t>
   </si>
   <si>
-    <t>3.788</t>
+    <t>3.790</t>
   </si>
   <si>
     <t>(0.012)</t>
@@ -384,7 +384,7 @@
     <t>0.069</t>
   </si>
   <si>
-    <t>0.201</t>
+    <t>0.200</t>
   </si>
   <si>
     <t>0.111</t>
@@ -414,7 +414,7 @@
     <t>0.080</t>
   </si>
   <si>
-    <t>0.083</t>
+    <t>0.084</t>
   </si>
   <si>
     <t>0.013</t>
@@ -441,13 +441,13 @@
     <t>0.328</t>
   </si>
   <si>
-    <t>45020</t>
-  </si>
-  <si>
-    <t>45889</t>
-  </si>
-  <si>
-    <t>41790</t>
+    <t>45031</t>
+  </si>
+  <si>
+    <t>45902</t>
+  </si>
+  <si>
+    <t>41802</t>
   </si>
   <si>
     <t>(2)-(1)</t>
@@ -459,10 +459,10 @@
     <t>Mean difference</t>
   </si>
   <si>
-    <t>0.273***</t>
-  </si>
-  <si>
-    <t>1.356***</t>
+    <t>0.272***</t>
+  </si>
+  <si>
+    <t>1.361***</t>
   </si>
   <si>
     <t>-0.003***</t>
@@ -471,7 +471,7 @@
     <t>0.033***</t>
   </si>
   <si>
-    <t>-0.014</t>
+    <t>-0.012</t>
   </si>
   <si>
     <t>-0.001</t>
@@ -501,6 +501,9 @@
     <t>0.081***</t>
   </si>
   <si>
+    <t>0.001*</t>
+  </si>
+  <si>
     <t>0.058***</t>
   </si>
   <si>
@@ -561,7 +564,7 @@
     <t>0.007***</t>
   </si>
   <si>
-    <t>0.026***</t>
+    <t>0.027***</t>
   </si>
   <si>
     <t>0.016***</t>
@@ -1350,7 +1353,7 @@
         <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33">
@@ -1396,7 +1399,7 @@
         <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35">
@@ -1442,7 +1445,7 @@
         <v>143</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37">
@@ -1488,7 +1491,7 @@
         <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1537,7 @@
         <v>143</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
@@ -1626,7 +1629,7 @@
         <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45">
@@ -1672,7 +1675,7 @@
         <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47">
@@ -1718,7 +1721,7 @@
         <v>143</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49">
@@ -1764,7 +1767,7 @@
         <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51">
@@ -1810,7 +1813,7 @@
         <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53">
@@ -1856,7 +1859,7 @@
         <v>143</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
@@ -1948,7 +1951,7 @@
         <v>143</v>
       </c>
       <c r="G58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
@@ -1994,7 +1997,7 @@
         <v>143</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61">
@@ -2040,7 +2043,7 @@
         <v>143</v>
       </c>
       <c r="G62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -2086,7 +2089,7 @@
         <v>143</v>
       </c>
       <c r="G64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65">
@@ -2132,7 +2135,7 @@
         <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67">
@@ -2178,7 +2181,7 @@
         <v>143</v>
       </c>
       <c r="G68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69">
@@ -2224,7 +2227,7 @@
         <v>143</v>
       </c>
       <c r="G70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71">
@@ -2270,7 +2273,7 @@
         <v>143</v>
       </c>
       <c r="G72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73">
@@ -2316,7 +2319,7 @@
         <v>143</v>
       </c>
       <c r="G74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75">
@@ -2362,7 +2365,7 @@
         <v>143</v>
       </c>
       <c r="G76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77">
@@ -2500,7 +2503,7 @@
         <v>143</v>
       </c>
       <c r="G82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83">
@@ -2546,7 +2549,7 @@
         <v>143</v>
       </c>
       <c r="G84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85">
@@ -2684,7 +2687,7 @@
         <v>143</v>
       </c>
       <c r="G90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91">
@@ -2730,7 +2733,7 @@
         <v>143</v>
       </c>
       <c r="G92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93">
@@ -2776,7 +2779,7 @@
         <v>143</v>
       </c>
       <c r="G94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95">
@@ -2822,7 +2825,7 @@
         <v>143</v>
       </c>
       <c r="G96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -2868,7 +2871,7 @@
         <v>143</v>
       </c>
       <c r="G98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99">
@@ -2960,7 +2963,7 @@
         <v>143</v>
       </c>
       <c r="G102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103">
